--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail13 Features.xlsx
@@ -3215,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,29 +3226,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3269,115 +3267,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3394,72 +3382,66 @@
         <v>6.197390188075233e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.06069571309493775</v>
+        <v>2.16710927544805e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.346274171943818</v>
+        <v>9.13452279944561e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.16710927544805e-07</v>
+        <v>-0.05832105263377779</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.13452279944561e-07</v>
+        <v>0.138895543953291</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05832105263377779</v>
+        <v>0.02265966205030885</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.138895543953291</v>
+        <v>1.82762935331873</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02265966205030885</v>
+        <v>1.675491947429365</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.781612240518716</v>
+        <v>4.464947382870216</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.675491947429365</v>
+        <v>1.226563951957717e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.464947382870216</v>
+        <v>456672687.9375598</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.226563951957717e-16</v>
+        <v>2.584446224912293e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>456672687.9375598</v>
+        <v>25.57998433804989</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.584446224912293e-07</v>
+        <v>0.0001427579699780886</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>25.57998433804989</v>
+        <v>7.773501665987689</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001427579699780886</v>
+        <v>1.466177597684839</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.773501665987689</v>
+        <v>0.008626482698052749</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.466177597684839</v>
+        <v>3.05520135625826</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008626482698052749</v>
+        <v>0.957803002163621</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.05520135625826</v>
+        <v>1.666720450471844</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.957803002163621</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.666720450471844</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2238090522636803</v>
       </c>
     </row>
@@ -3474,72 +3456,66 @@
         <v>6.184146369199024e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.08326593875585807</v>
+        <v>1.964583639866277e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.344558286669155</v>
+        <v>9.101734661074571e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.964583639866277e-07</v>
+        <v>-0.04816774102463261</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.101734661074571e-07</v>
+        <v>0.1173666796713215</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04816774102463261</v>
+        <v>0.01607664382499647</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1173666796713215</v>
+        <v>1.832045258818627</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01607664382499647</v>
+        <v>1.632433526648773</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.785908206385627</v>
+        <v>4.584415838337342</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.632433526648773</v>
+        <v>1.163469168018161e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.584415838337342</v>
+        <v>475657468.9654601</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.163469168018161e-16</v>
+        <v>2.484688809652053e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>475657468.9654601</v>
+        <v>26.32349315883395</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.484688809652053e-07</v>
+        <v>0.0001646635199195936</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>26.32349315883395</v>
+        <v>10.30766175235586</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001646635199195936</v>
+        <v>1.199853724232213</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.30766175235586</v>
+        <v>0.01749515168332194</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.199853724232213</v>
+        <v>2.849841826864518</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01749515168332194</v>
+        <v>0.9565460530525249</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.849841826864518</v>
+        <v>1.652884006197388</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9565460530525249</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.652884006197388</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2836201055757988</v>
       </c>
     </row>
@@ -3554,72 +3530,66 @@
         <v>6.235095129665959e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1302745063570162</v>
+        <v>1.965879428144184e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.323302278565114</v>
+        <v>9.074436140733921e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.965879428144184e-07</v>
+        <v>-0.04022356006410144</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.074436140733921e-07</v>
+        <v>0.1036986001503831</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04022356006410144</v>
+        <v>0.01236220227720928</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1036986001503831</v>
+        <v>1.836391409838526</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01236220227720928</v>
+        <v>1.637155129651633</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.794603067188005</v>
+        <v>4.602983003520285</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.637155129651633</v>
+        <v>1.019407665335047e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.602983003520285</v>
+        <v>544891756.9442232</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.019407665335047e-16</v>
+        <v>2.164860065212999e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>544891756.9442232</v>
+        <v>30.26692989972442</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.164860065212999e-07</v>
+        <v>0.0002191917729621589</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>30.26692989972442</v>
+        <v>13.71245147772691</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002191917729621589</v>
+        <v>0.9813409780819949</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.71245147772691</v>
+        <v>0.04121491961512962</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.9813409780819949</v>
+        <v>2.371433019678917</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04121491961512962</v>
+        <v>0.9564677182744782</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.371433019678917</v>
+        <v>1.688458022588454</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9564677182744782</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.688458022588454</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4100709926398368</v>
       </c>
     </row>
@@ -3634,72 +3604,66 @@
         <v>6.312599235635083e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1771251980874996</v>
+        <v>1.965879428144184e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.316847292277919</v>
+        <v>9.051168272586681e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.965879428144184e-07</v>
+        <v>-0.03433029094227971</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.051168272586681e-07</v>
+        <v>0.09610213736896295</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03433029094227971</v>
+        <v>0.01041001677052283</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09610213736896295</v>
+        <v>1.876300384406818</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01041001677052283</v>
+        <v>1.749201030235702</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.855054458024033</v>
+        <v>4.154203355301727</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.749201030235702</v>
+        <v>9.505745225552187e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.154203355301727</v>
+        <v>525985579.2516681</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.505745225552187e-17</v>
+        <v>2.240250434397045e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>525985579.2516681</v>
+        <v>26.29867359884168</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.240250434397045e-07</v>
+        <v>0.0002765845431077899</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.29867359884168</v>
+        <v>11.95426022061982</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002765845431077899</v>
+        <v>1.337653360489093</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.95426022061982</v>
+        <v>0.03952513087406647</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.337653360489093</v>
+        <v>2.435134313757939</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03952513087406647</v>
+        <v>0.9590347121308721</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.435134313757939</v>
+        <v>1.455078515364111</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9590347121308721</v>
+        <v>38</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.455078515364111</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5095292591947937</v>
       </c>
     </row>
@@ -4076,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.469107913806234</v>
+        <v>1.445755962258223</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.159617836725273</v>
@@ -4165,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.476875752168855</v>
+        <v>1.450791475750435</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.114144240156199</v>
@@ -4254,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541013090297271</v>
+        <v>1.503361030539134</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.354199344544775</v>
@@ -4343,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566970136982924</v>
+        <v>1.524408845408622</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.630531090759199</v>
@@ -4432,7 +4396,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.564458702720358</v>
+        <v>1.522296892936464</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.638914696609596</v>
@@ -4521,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570529255781467</v>
+        <v>1.527966050415548</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.707270060946049</v>
@@ -4610,7 +4574,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574596614297784</v>
+        <v>1.532874754427656</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.849364714975814</v>
@@ -4699,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580128565094224</v>
+        <v>1.533984682482749</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.925492715729883</v>
@@ -4788,7 +4752,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582271267256862</v>
+        <v>1.53623602133881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.711995066322856</v>
@@ -4877,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578624403607982</v>
+        <v>1.535208604986863</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.731588116209152</v>
@@ -4966,7 +4930,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.579376292016706</v>
+        <v>1.533782911926006</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.5746880167393</v>
@@ -5055,7 +5019,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.582955829862968</v>
+        <v>1.539096702559308</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.601611440261796</v>
@@ -5144,7 +5108,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590227191487369</v>
+        <v>1.543167380625176</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.628242497747644</v>
@@ -5233,7 +5197,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.638684981143359</v>
+        <v>1.57462849354501</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.282102446934136</v>
@@ -5322,7 +5286,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635945195917041</v>
+        <v>1.570132029298302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.517900785988809</v>
@@ -5411,7 +5375,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.650019439328037</v>
+        <v>1.587772569780394</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.581133301618582</v>
@@ -5500,7 +5464,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.654770092564364</v>
+        <v>1.59319923694488</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.640298440872257</v>
@@ -5589,7 +5553,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.675322302610417</v>
+        <v>1.60115077494871</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.697324546797045</v>
@@ -5678,7 +5642,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.663102039780263</v>
+        <v>1.588390875181697</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.471120399217445</v>
@@ -5767,7 +5731,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682911062695554</v>
+        <v>1.60836712559784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.378965160315847</v>
@@ -5856,7 +5820,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.676481028350734</v>
+        <v>1.598150076997365</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.504031708315022</v>
@@ -5945,7 +5909,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.683042129419022</v>
+        <v>1.60476516422123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.431509451331313</v>
@@ -6034,7 +5998,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684762209188688</v>
+        <v>1.613762166277744</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.493282112940013</v>
@@ -6123,7 +6087,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.681193232934103</v>
+        <v>1.612456438735709</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.534719483036828</v>
@@ -6212,7 +6176,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.686146555405135</v>
+        <v>1.615269965091042</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.465628747878966</v>
@@ -6301,7 +6265,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.69697156222977</v>
+        <v>1.624115799506544</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.686254237370453</v>
@@ -6390,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.689379708646466</v>
+        <v>1.617337457992873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.483984627251232</v>
@@ -6479,7 +6443,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.691505464169857</v>
+        <v>1.623398181222639</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.739611994113426</v>
@@ -6568,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.690403771919935</v>
+        <v>1.622633049941177</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.729875287075372</v>
@@ -6657,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699446597427752</v>
+        <v>1.63015946185653</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.570195224657999</v>
@@ -6746,7 +6710,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.699631868674091</v>
+        <v>1.636875903600861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.280407769257054</v>
@@ -6835,7 +6799,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698570082920827</v>
+        <v>1.636224101963796</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.474203863030836</v>
@@ -6924,7 +6888,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.702482871903991</v>
+        <v>1.644555142956107</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.552647619076025</v>
@@ -7013,7 +6977,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716318401720315</v>
+        <v>1.655631089530633</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.614428716726345</v>
@@ -7102,7 +7066,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713417934685025</v>
+        <v>1.648966906581012</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.475285612763966</v>
@@ -7191,7 +7155,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.703420858253882</v>
+        <v>1.645756026541572</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.467125540543823</v>
@@ -7280,7 +7244,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.700809909259102</v>
+        <v>1.636898545866389</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.619440954324025</v>
@@ -7369,7 +7333,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.680038690635924</v>
+        <v>1.610748600378381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.728687399862433</v>
@@ -7458,7 +7422,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.679280440435235</v>
+        <v>1.606803139107901</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.951147162895808</v>
@@ -7547,7 +7511,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681661864644567</v>
+        <v>1.603558236056006</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.924958992096667</v>
@@ -7636,7 +7600,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.681541912325637</v>
+        <v>1.599196271410509</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.949866530455658</v>
@@ -7725,7 +7689,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689684773669235</v>
+        <v>1.60218515950868</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.156249974857178</v>
@@ -7814,7 +7778,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.684622112658876</v>
+        <v>1.593807929726651</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.086361686372502</v>
@@ -7903,7 +7867,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.687603216548839</v>
+        <v>1.592867072378773</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.193808817181892</v>
@@ -7992,7 +7956,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.681801846485744</v>
+        <v>1.582520278489274</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.145767152231642</v>
@@ -8081,7 +8045,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.68090124091769</v>
+        <v>1.583314878079541</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.214086101362009</v>
@@ -8170,7 +8134,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.666345528912446</v>
+        <v>1.571083993553898</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.385144119830343</v>
@@ -8259,7 +8223,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.664896279893205</v>
+        <v>1.56719522685569</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.248195382608569</v>
@@ -8348,7 +8312,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.64823454130082</v>
+        <v>1.555215154247065</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.399784693434049</v>
@@ -8634,7 +8598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.618804085496163</v>
+        <v>1.61173653896258</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.828349921201786</v>
@@ -8723,7 +8687,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.629308139452929</v>
+        <v>1.620901214023571</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.612796443994527</v>
@@ -8812,7 +8776,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.667512047689079</v>
+        <v>1.655949099652468</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.640473000911336</v>
@@ -8901,7 +8865,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.677427107143674</v>
+        <v>1.660226919064631</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.742801744524875</v>
@@ -8990,7 +8954,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.681760282557072</v>
+        <v>1.661004940484198</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.752729848654744</v>
@@ -9079,7 +9043,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680603270157366</v>
+        <v>1.661392220118868</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.276861603489381</v>
@@ -9168,7 +9132,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.689118896382973</v>
+        <v>1.669983380963284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.136821525619577</v>
@@ -9257,7 +9221,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685275942202561</v>
+        <v>1.66435924057899</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.243927747070628</v>
@@ -9346,7 +9310,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.685690404240062</v>
+        <v>1.66438228043189</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.831128075476117</v>
@@ -9435,7 +9399,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.672213382263287</v>
+        <v>1.652814882921869</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.266232974193715</v>
@@ -9524,7 +9488,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.663265312513131</v>
+        <v>1.642647185209497</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.849303462981591</v>
@@ -9613,7 +9577,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.671562711443161</v>
+        <v>1.644166251948078</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.856302527806418</v>
@@ -9702,7 +9666,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.671930008227891</v>
+        <v>1.64502271023358</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.72007691809612</v>
@@ -9791,7 +9755,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.677166450428543</v>
+        <v>1.6457164051438</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.647548008497249</v>
@@ -9880,7 +9844,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670598900856944</v>
+        <v>1.641119179834239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.798345934095038</v>
@@ -9969,7 +9933,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674101705380722</v>
+        <v>1.647945624642511</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.858369879042128</v>
@@ -10058,7 +10022,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666327219497032</v>
+        <v>1.639674656526636</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.708868811166417</v>
@@ -10147,7 +10111,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.684367455522253</v>
+        <v>1.65128529482734</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.027654798601278</v>
@@ -10236,7 +10200,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681470667004972</v>
+        <v>1.6507182639649</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.695829172938862</v>
@@ -10325,7 +10289,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.687889399120311</v>
+        <v>1.661559402216466</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.597459120105922</v>
@@ -10414,7 +10378,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.686954850542413</v>
+        <v>1.659684882654966</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.674702662814923</v>
@@ -10503,7 +10467,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.699598527933372</v>
+        <v>1.670848864223741</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.444375742715701</v>
@@ -10592,7 +10556,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.707691208672665</v>
+        <v>1.680205851017971</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.702110548627845</v>
@@ -10681,7 +10645,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.707117123855271</v>
+        <v>1.681072303596662</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.759084453615184</v>
@@ -10770,7 +10734,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.713864189554833</v>
+        <v>1.688728897494134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.712982016121819</v>
@@ -10859,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720872281738471</v>
+        <v>1.692260694046551</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.459781266449634</v>
@@ -10948,7 +10912,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.716929498315518</v>
+        <v>1.687355718873926</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.151200044984291</v>
@@ -11037,7 +11001,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.721551493206012</v>
+        <v>1.694565836694903</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.397872481094114</v>
@@ -11126,7 +11090,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.72239226556853</v>
+        <v>1.694658609980645</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.525133653084504</v>
@@ -11215,7 +11179,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734473515903342</v>
+        <v>1.701754889982926</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.67432424599615</v>
@@ -11304,7 +11268,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.736881353759602</v>
+        <v>1.706139058254941</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.988848292166396</v>
@@ -11393,7 +11357,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.74167100506133</v>
+        <v>1.711629335109339</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.369101617990494</v>
@@ -11482,7 +11446,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.742172228233477</v>
+        <v>1.70955632851406</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.445821793905755</v>
@@ -11571,7 +11535,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.751222558245668</v>
+        <v>1.715343756537678</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.273569160500565</v>
@@ -11660,7 +11624,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.755773618494135</v>
+        <v>1.710256102277352</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.35163398300429</v>
@@ -11749,7 +11713,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.749860049044891</v>
+        <v>1.705624437384806</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.131913267361973</v>
@@ -11838,7 +11802,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745952379480798</v>
+        <v>1.694619519482283</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.27469579143726</v>
@@ -11927,7 +11891,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729749849526048</v>
+        <v>1.672735041701184</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.057733828415003</v>
@@ -12016,7 +11980,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728042425240603</v>
+        <v>1.667273143959723</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.916514270956919</v>
@@ -12105,7 +12069,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720274095362517</v>
+        <v>1.653719809713794</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.329702920554809</v>
@@ -12194,7 +12158,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705016159742134</v>
+        <v>1.638100335959749</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.417610816439369</v>
@@ -12283,7 +12247,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.707585014696676</v>
+        <v>1.636717273571203</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.45406635881179</v>
@@ -12372,7 +12336,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710957640114699</v>
+        <v>1.631539529501547</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.120567700997383</v>
@@ -12461,7 +12425,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708631115968794</v>
+        <v>1.626115026950413</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.216374216458801</v>
@@ -12550,7 +12514,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699342374965</v>
+        <v>1.613790798523305</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.396928506694631</v>
@@ -12639,7 +12603,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.696153739135032</v>
+        <v>1.615559647417329</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.582102182096602</v>
@@ -12728,7 +12692,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.685698411163579</v>
+        <v>1.604886022944221</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.506722139668046</v>
@@ -12817,7 +12781,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.676500449324981</v>
+        <v>1.591900474441999</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.887246793026377</v>
@@ -12906,7 +12870,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63387336371102</v>
+        <v>1.563284596239668</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.744758778296544</v>
@@ -13192,7 +13156,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.401305885078852</v>
+        <v>1.41519440737717</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.561756073280811</v>
@@ -13281,7 +13245,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.423367765404566</v>
+        <v>1.435735636016859</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.559058330323076</v>
@@ -13370,7 +13334,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.644590818661306</v>
+        <v>1.660182850869005</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.999758160220114</v>
@@ -13459,7 +13423,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682132871298651</v>
+        <v>1.687472767577331</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.462928965402384</v>
@@ -13548,7 +13512,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.688902481626246</v>
+        <v>1.689434861914789</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.361489272424284</v>
@@ -13637,7 +13601,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.68421129547268</v>
+        <v>1.690105612448505</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.310831101693237</v>
@@ -13726,7 +13690,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692333094402731</v>
+        <v>1.697863236192093</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.35728730386271</v>
@@ -13815,7 +13779,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.695725434358799</v>
+        <v>1.706898371390449</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.391620989121045</v>
@@ -13904,7 +13868,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.697353330619573</v>
+        <v>1.711347107600951</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.354670307006617</v>
@@ -13993,7 +13957,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.689558176149765</v>
+        <v>1.705386664280803</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.318853418628364</v>
@@ -14082,7 +14046,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.687396734231977</v>
+        <v>1.704197960617005</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.284622081470335</v>
@@ -14171,7 +14135,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.692207022643217</v>
+        <v>1.709501771085911</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.270361876399467</v>
@@ -14260,7 +14224,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.68308269380537</v>
+        <v>1.69732547119728</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.328466919427006</v>
@@ -14349,7 +14313,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.683095463743371</v>
+        <v>1.698544539694371</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.318978909851086</v>
@@ -14438,7 +14402,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.67761308020563</v>
+        <v>1.692721030053966</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.246655482394522</v>
@@ -14527,7 +14491,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675530299053581</v>
+        <v>1.690541406208222</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.183675405366431</v>
@@ -14616,7 +14580,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685263268851977</v>
+        <v>1.694120132535443</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.006595532893167</v>
@@ -14705,7 +14669,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.778362900418888</v>
+        <v>1.767297461952538</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.269611796928568</v>
@@ -14794,7 +14758,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.775963131275234</v>
+        <v>1.764228813080086</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.135650169559103</v>
@@ -14883,7 +14847,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791761871419989</v>
+        <v>1.781381668656919</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.234275799179899</v>
@@ -14972,7 +14936,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.797253321711234</v>
+        <v>1.782085341943233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.579608308961984</v>
@@ -15061,7 +15025,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.793518270250806</v>
+        <v>1.777433540757818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.622240606041142</v>
@@ -15150,7 +15114,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.789593504390095</v>
+        <v>1.773179857334616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.558128141024382</v>
@@ -15239,7 +15203,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.782480558459943</v>
+        <v>1.764065901715182</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.716016973593848</v>
@@ -15328,7 +15292,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.775584975424336</v>
+        <v>1.753893395678958</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.010780306831629</v>
@@ -15417,7 +15381,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.780711886277674</v>
+        <v>1.75887654692089</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.814010086073003</v>
@@ -15506,7 +15470,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.769961680726591</v>
+        <v>1.742786700886212</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.190072377544708</v>
@@ -15595,7 +15559,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.774100154445016</v>
+        <v>1.744507114166349</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.348807809576428</v>
@@ -15684,7 +15648,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.785525070115823</v>
+        <v>1.754006294013955</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.240351245970004</v>
@@ -15773,7 +15737,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.797997342911184</v>
+        <v>1.765241658755275</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.82262653240872</v>
@@ -15862,7 +15826,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.799712141625118</v>
+        <v>1.772126564035645</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.454626800798554</v>
@@ -15951,7 +15915,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.794516857747924</v>
+        <v>1.764453179361321</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.498697423790325</v>
@@ -16040,7 +16004,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.793374290612974</v>
+        <v>1.759629378260028</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.491092262840562</v>
@@ -16129,7 +16093,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.794547868436583</v>
+        <v>1.763935643409108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.163075167886238</v>
@@ -16218,7 +16182,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.800606740355636</v>
+        <v>1.765636842745825</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.71960265542838</v>
@@ -16307,7 +16271,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.792841495912744</v>
+        <v>1.76292168417081</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.736678239624668</v>
@@ -16396,7 +16360,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.795179287093502</v>
+        <v>1.762226892929835</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.30829357229293</v>
@@ -16485,7 +16449,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.773664968781316</v>
+        <v>1.730207486503189</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.1234881343922</v>
@@ -16574,7 +16538,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.771608371378846</v>
+        <v>1.723869359309193</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.225943387654084</v>
@@ -16663,7 +16627,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.775764543024761</v>
+        <v>1.7323185652211</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.634298132229135</v>
@@ -16752,7 +16716,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.75793943552903</v>
+        <v>1.711776341008169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.496870458563357</v>
@@ -16841,7 +16805,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.768997217415578</v>
+        <v>1.716596184956721</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.280061903618726</v>
@@ -16930,7 +16894,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.762449031092008</v>
+        <v>1.703015362211071</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.504696571813563</v>
@@ -17019,7 +16983,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.75663880473698</v>
+        <v>1.692626129205238</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.635867472507194</v>
@@ -17108,7 +17072,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.743704912881272</v>
+        <v>1.678570395699179</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.457668483883813</v>
@@ -17197,7 +17161,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.734607685605503</v>
+        <v>1.666390093268775</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.597556312042255</v>
@@ -17286,7 +17250,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.728257698774875</v>
+        <v>1.662297394717703</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.58747747724783</v>
@@ -17375,7 +17339,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.723022344682914</v>
+        <v>1.65731591189454</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.511086519984093</v>
@@ -17464,7 +17428,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.679240946932356</v>
+        <v>1.621836574643836</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.167138736803164</v>
@@ -17750,7 +17714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446104214713747</v>
+        <v>1.464828658435294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.755720483919555</v>
@@ -17839,7 +17803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469862954904229</v>
+        <v>1.486019417920531</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.83224787700401</v>
@@ -17928,7 +17892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.655860408394047</v>
+        <v>1.643623329765613</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.518239061071735</v>
@@ -18017,7 +17981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663300915483497</v>
+        <v>1.640387607737086</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.090212185414171</v>
@@ -18106,7 +18070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.654977855759628</v>
+        <v>1.629167474395421</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.937108643652505</v>
@@ -18195,7 +18159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.659534484694578</v>
+        <v>1.637216435140914</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.99032897599165</v>
@@ -18284,7 +18248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669091673656369</v>
+        <v>1.646450281121478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.236072602766032</v>
@@ -18373,7 +18337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.66342520288379</v>
+        <v>1.64412807712058</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.891126702292492</v>
@@ -18462,7 +18426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.660732837591986</v>
+        <v>1.648382691757008</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.774460394258794</v>
@@ -18551,7 +18515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657996651443137</v>
+        <v>1.64480668695575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.284796959495152</v>
@@ -18640,7 +18604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.660693812608138</v>
+        <v>1.647730420743259</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.153850696142022</v>
@@ -18729,7 +18693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.672774546320968</v>
+        <v>1.655158750076828</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.197724628796774</v>
@@ -18818,7 +18782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.660553397366851</v>
+        <v>1.637998706606263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.019517598531389</v>
@@ -18907,7 +18871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676136116682475</v>
+        <v>1.645717524886362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.022427344966442</v>
@@ -18996,7 +18960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.673800558525905</v>
+        <v>1.640814634725761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.198852016923026</v>
@@ -19085,7 +19049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.687549900847628</v>
+        <v>1.64710982264391</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.701592016578985</v>
@@ -19174,7 +19138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676456785074928</v>
+        <v>1.641650935710657</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.968495166579733</v>
@@ -19263,7 +19227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677760809641005</v>
+        <v>1.629772709072622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.151130497936353</v>
@@ -19352,7 +19316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.677973878639047</v>
+        <v>1.628820812172031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.878581138564992</v>
@@ -19441,7 +19405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.701801836066926</v>
+        <v>1.650781734025506</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.040490523372406</v>
@@ -19530,7 +19494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.714920595223941</v>
+        <v>1.660860415307813</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.369391168013258</v>
@@ -19619,7 +19583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.716842079098166</v>
+        <v>1.65855902195671</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.125290405706222</v>
@@ -19708,7 +19672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.728254824916058</v>
+        <v>1.667793218319746</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.996664165353998</v>
@@ -19797,7 +19761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.728700167125641</v>
+        <v>1.663813865011052</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.452798207349161</v>
@@ -19886,7 +19850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726120918479527</v>
+        <v>1.66107317412893</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.329255843216722</v>
@@ -19975,7 +19939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.726991831814401</v>
+        <v>1.662596796298561</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.671189857370632</v>
@@ -20064,7 +20028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.716889726960652</v>
+        <v>1.654350392056717</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.012317922145296</v>
@@ -20153,7 +20117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728776110184328</v>
+        <v>1.655890091662791</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.57294320495481</v>
@@ -20242,7 +20206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.722927858524389</v>
+        <v>1.650173357952388</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.016663777439568</v>
@@ -20331,7 +20295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.731715425431228</v>
+        <v>1.661301135998435</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.854132778820817</v>
@@ -20420,7 +20384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.73457610468584</v>
+        <v>1.667111848684264</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.651165374739005</v>
@@ -20509,7 +20473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.732208146156366</v>
+        <v>1.659319097406719</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.982392568893156</v>
@@ -20598,7 +20562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734854708610612</v>
+        <v>1.669915795239067</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.985674885915372</v>
@@ -20687,7 +20651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.741332374079044</v>
+        <v>1.681773986721156</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.706096736699224</v>
@@ -20776,7 +20740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738310517813968</v>
+        <v>1.674744781634773</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.535749538806515</v>
@@ -20865,7 +20829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716815336632641</v>
+        <v>1.658198264752388</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.001750581211346</v>
@@ -20954,7 +20918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.710523650272782</v>
+        <v>1.650499860149499</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.327642067523197</v>
@@ -21043,7 +21007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.694330361809566</v>
+        <v>1.623069548479069</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.026834104651816</v>
@@ -21132,7 +21096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.687124444811324</v>
+        <v>1.613132952595908</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.63340434123611</v>
@@ -21221,7 +21185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.68680235155762</v>
+        <v>1.618279896738565</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.010809763418642</v>
@@ -21310,7 +21274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.685155394238204</v>
+        <v>1.612268826671653</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.141564058882445</v>
@@ -21399,7 +21363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687555558826837</v>
+        <v>1.609639612963599</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.894652311744449</v>
@@ -21488,7 +21452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.682566591169877</v>
+        <v>1.611260106008512</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.900583466319836</v>
@@ -21577,7 +21541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.67803556640893</v>
+        <v>1.60274055994489</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.973935407304555</v>
@@ -21666,7 +21630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.663304360509892</v>
+        <v>1.586685600835054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.154593370167172</v>
@@ -21755,7 +21719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.666997412261984</v>
+        <v>1.589078189944767</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.255535071785641</v>
@@ -21844,7 +21808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.662015336452524</v>
+        <v>1.583498227134202</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.118206130328816</v>
@@ -21933,7 +21897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.650600414733763</v>
+        <v>1.570640441513605</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.041982594638323</v>
@@ -22022,7 +21986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612776922202401</v>
+        <v>1.54347347196884</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.873896608304766</v>
@@ -22308,7 +22272,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.459363371450831</v>
+        <v>1.448137793083368</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.020922836426098</v>
@@ -22397,7 +22361,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45472365869571</v>
+        <v>1.445573642647345</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.125542740021685</v>
@@ -22486,7 +22450,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501610364196557</v>
+        <v>1.489577738546388</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.570272195545915</v>
@@ -22575,7 +22539,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507700228438111</v>
+        <v>1.486713923278472</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.648344724607707</v>
@@ -22664,7 +22628,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508424842219095</v>
+        <v>1.483299329238803</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.783049779193904</v>
@@ -22753,7 +22717,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508575127498726</v>
+        <v>1.486679286478516</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.722687651979187</v>
@@ -22842,7 +22806,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.509781484838028</v>
+        <v>1.490686810166044</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.746570698695284</v>
@@ -22931,7 +22895,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.508650551212313</v>
+        <v>1.492621918458363</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.599802869317658</v>
@@ -23020,7 +22984,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.518018225017807</v>
+        <v>1.503331388346765</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.383541651594681</v>
@@ -23109,7 +23073,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536149369870531</v>
+        <v>1.519519903178405</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.693240075301087</v>
@@ -23198,7 +23162,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.548796751429093</v>
+        <v>1.528044636891556</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.280546610600039</v>
@@ -23287,7 +23251,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58127998858496</v>
+        <v>1.555449929200588</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.297610738159027</v>
@@ -23376,7 +23340,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597484996217705</v>
+        <v>1.565410095611854</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.809390511307103</v>
@@ -23465,7 +23429,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.600345444826577</v>
+        <v>1.564887117629332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.922640543387256</v>
@@ -23554,7 +23518,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574289110569929</v>
+        <v>1.535681431653538</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.342782354773464</v>
@@ -23643,7 +23607,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569264602409206</v>
+        <v>1.529348916120891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.201774310356517</v>
@@ -23732,7 +23696,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574229153505996</v>
+        <v>1.531271433258802</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.326910905313203</v>
@@ -23821,7 +23785,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556308274807276</v>
+        <v>1.509332534726379</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.217125553536612</v>
@@ -23910,7 +23874,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.554303824542419</v>
+        <v>1.511181172830508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.286341816722308</v>
@@ -23999,7 +23963,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566856863846194</v>
+        <v>1.524967810509668</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.396081763064271</v>
@@ -24088,7 +24052,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.572709892875715</v>
+        <v>1.526648025411697</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.247455687433019</v>
@@ -24177,7 +24141,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585337924254935</v>
+        <v>1.538285174043852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.401621642541409</v>
@@ -24266,7 +24230,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589513294384884</v>
+        <v>1.537249085789492</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.312510562598411</v>
@@ -24355,7 +24319,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591385819296954</v>
+        <v>1.533597986277046</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.315822089165734</v>
@@ -24444,7 +24408,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590128383654986</v>
+        <v>1.534531436489202</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.290219856008161</v>
@@ -24533,7 +24497,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588898001925755</v>
+        <v>1.532165786226608</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.335558583109381</v>
@@ -24622,7 +24586,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.585316628619646</v>
+        <v>1.528629702718158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.319394879161945</v>
@@ -24711,7 +24675,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.589132226625824</v>
+        <v>1.52479914876972</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.306387447522671</v>
@@ -24800,7 +24764,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.595650529440575</v>
+        <v>1.530645354775845</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.247112105260042</v>
@@ -24889,7 +24853,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635358386238299</v>
+        <v>1.564951504191082</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.369810977846082</v>
@@ -24978,7 +24942,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629587960330315</v>
+        <v>1.557525446858529</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.488631889585398</v>
@@ -25067,7 +25031,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618749456142636</v>
+        <v>1.551886749761139</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.3355145137814</v>
@@ -25156,7 +25120,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633313464686162</v>
+        <v>1.567822053298169</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.155342511700102</v>
@@ -25245,7 +25209,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640162753783919</v>
+        <v>1.581514963395377</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.983401507969469</v>
@@ -25334,7 +25298,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.635754944082718</v>
+        <v>1.573776129826196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.043298180476639</v>
@@ -25423,7 +25387,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615662055002457</v>
+        <v>1.555712633796885</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.054491138526741</v>
@@ -25512,7 +25476,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610031725808199</v>
+        <v>1.551264409091727</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.008873648460891</v>
@@ -25601,7 +25565,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596878871721855</v>
+        <v>1.537373935523021</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.887533547838713</v>
@@ -25690,7 +25654,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.598762344499193</v>
+        <v>1.544562716786085</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.644681638492927</v>
@@ -25779,7 +25743,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.601492712137628</v>
+        <v>1.548779310048696</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.863788367828301</v>
@@ -25868,7 +25832,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.596575875803071</v>
+        <v>1.540890749307297</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.794471119087247</v>
@@ -25957,7 +25921,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.605968149189587</v>
+        <v>1.545780593708609</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.842064022248788</v>
@@ -26046,7 +26010,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608844013704908</v>
+        <v>1.554365366836884</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.941576149025657</v>
@@ -26135,7 +26099,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.608079480929286</v>
+        <v>1.548329803646046</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.903127833682473</v>
@@ -26224,7 +26188,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598728605928224</v>
+        <v>1.538792065467368</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.067542443985866</v>
@@ -26313,7 +26277,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.621002456537193</v>
+        <v>1.558352103283726</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.767778222934376</v>
@@ -26402,7 +26366,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613457188092246</v>
+        <v>1.555660343283306</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.883815151492215</v>
@@ -26491,7 +26455,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618934642588215</v>
+        <v>1.554767811300043</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.927601106583242</v>
@@ -26580,7 +26544,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.599946633239235</v>
+        <v>1.542789560731181</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.994418660610316</v>
@@ -26866,7 +26830,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.637229036194572</v>
+        <v>1.649109796463146</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.617829948690379</v>
@@ -26955,7 +26919,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.632172182592192</v>
+        <v>1.644613960260228</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.369413771305747</v>
@@ -27044,7 +27008,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.691895683626097</v>
+        <v>1.693876061070392</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.844106122108518</v>
@@ -27133,7 +27097,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.692767638314478</v>
+        <v>1.695853970238692</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.084558253751347</v>
@@ -27222,7 +27186,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710114569605193</v>
+        <v>1.709541367678988</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.183387832582479</v>
@@ -27311,7 +27275,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696958157083446</v>
+        <v>1.70336658190446</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.909855932085558</v>
@@ -27400,7 +27364,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.710680815448703</v>
+        <v>1.710473005100535</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.181329287212638</v>
@@ -27489,7 +27453,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.716079417466284</v>
+        <v>1.717520504863923</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.154663096923942</v>
@@ -27578,7 +27542,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.719092043959746</v>
+        <v>1.726874927834192</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.947279004825761</v>
@@ -27667,7 +27631,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.716433825397308</v>
+        <v>1.723322133121752</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.712772269189727</v>
@@ -27756,7 +27720,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.715313399119917</v>
+        <v>1.720589112060319</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.015625755956811</v>
@@ -27845,7 +27809,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.738939488793556</v>
+        <v>1.746567094088264</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.232384789894756</v>
@@ -27934,7 +27898,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727268063265213</v>
+        <v>1.743289292240379</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.197491772117515</v>
@@ -28023,7 +27987,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.731011389156026</v>
+        <v>1.74839328194389</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.282228949995447</v>
@@ -28112,7 +28076,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.699458590760963</v>
+        <v>1.719513439461035</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.241418590235518</v>
@@ -28201,7 +28165,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.682541513077694</v>
+        <v>1.709906295768495</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.0157869706847</v>
@@ -28290,7 +28254,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.696148855641899</v>
+        <v>1.723894304959733</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.226225757579292</v>
@@ -28379,7 +28343,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.700008056498618</v>
+        <v>1.725680316487266</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.050726380028517</v>
@@ -28468,7 +28432,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.703778593775695</v>
+        <v>1.728189048579383</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.316500297687383</v>
@@ -28557,7 +28521,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.720138968540248</v>
+        <v>1.745945381448285</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.10334043480443</v>
@@ -28646,7 +28610,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.732340410269558</v>
+        <v>1.758345938822559</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.844552724928022</v>
@@ -28735,7 +28699,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.731577934261197</v>
+        <v>1.757567431739593</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.918024810185087</v>
@@ -28824,7 +28788,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.72732380644924</v>
+        <v>1.752048098844469</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.347972150387761</v>
@@ -28913,7 +28877,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.729053106746578</v>
+        <v>1.750561117095476</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.184110237263642</v>
@@ -29002,7 +28966,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.728562179349682</v>
+        <v>1.753923007798995</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.11697901395006</v>
@@ -29091,7 +29055,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.737701443073495</v>
+        <v>1.767090370599846</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.049782382906598</v>
@@ -29180,7 +29144,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.718083114680553</v>
+        <v>1.747961145277871</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.271035284998714</v>
@@ -29269,7 +29233,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.733475381695047</v>
+        <v>1.756252978032432</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.017614686946829</v>
@@ -29358,7 +29322,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.730830772935996</v>
+        <v>1.75091224651433</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.1056110703126</v>
@@ -29447,7 +29411,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.776612548999221</v>
+        <v>1.789354106832904</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.671422454855722</v>
@@ -29536,7 +29500,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.791176565786998</v>
+        <v>1.804111358926543</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.735123391676695</v>
@@ -29625,7 +29589,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.759703782318171</v>
+        <v>1.775010658712187</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.126179884551417</v>
@@ -29714,7 +29678,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.735395360944016</v>
+        <v>1.756558898639501</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.171605170483883</v>
@@ -29803,7 +29767,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743371732977954</v>
+        <v>1.762690018072807</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.759970687807031</v>
@@ -29892,7 +29856,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.739887320459926</v>
+        <v>1.749471714645729</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.126780832804676</v>
@@ -29981,7 +29945,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.717957490626299</v>
+        <v>1.729087474174281</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.814273877798473</v>
@@ -30070,7 +30034,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.708531911718171</v>
+        <v>1.7189308993331</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.090916002880091</v>
@@ -30159,7 +30123,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677924457522947</v>
+        <v>1.67699355453441</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.021472254532378</v>
@@ -30248,7 +30212,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653176861426294</v>
+        <v>1.650322146148065</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.721465768268371</v>
@@ -30337,7 +30301,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644570512261001</v>
+        <v>1.637932245169692</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.126387809553296</v>
@@ -30426,7 +30390,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622283983213323</v>
+        <v>1.605919109784234</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.075073772743189</v>
@@ -30515,7 +30479,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618303615718758</v>
+        <v>1.600884218051076</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.997971744015077</v>
@@ -30604,7 +30568,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623626039089633</v>
+        <v>1.602245622644362</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.051489462065413</v>
@@ -30693,7 +30657,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62471307585274</v>
+        <v>1.602377255190317</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.12218789455215</v>
@@ -30782,7 +30746,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59599972428106</v>
+        <v>1.579692771029133</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.973810849938433</v>
@@ -30871,7 +30835,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.602032190526558</v>
+        <v>1.58373461452656</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.95566269167242</v>
@@ -30960,7 +30924,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619215139231832</v>
+        <v>1.598305403863626</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.686874505171833</v>
@@ -31049,7 +31013,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.597995843549758</v>
+        <v>1.57114090731896</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.955426109774924</v>
@@ -31138,7 +31102,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.452793692928042</v>
+        <v>1.446062785685253</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.814546811786542</v>
